--- a/tests/test_excelparameterloader.xlsx
+++ b/tests/test_excelparameterloader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csxds/workspaces/python/excel-modeling-tools/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csxds/workspaces/python/python-table-data-reader/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE8BB9A-220D-C34E-A374-E3DCBCEFD9AF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783BEA3E-53DC-9640-A59C-AC2741A5E245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,18 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="shuffle_col_order" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -630,7 +638,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,12 +1133,14 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I20" s="11">
         <v>0.1</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="3">
+        <v>39814</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>10</v>
       </c>

--- a/tests/test_excelparameterloader.xlsx
+++ b/tests/test_excelparameterloader.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csxds/workspaces/python/python-table-data-reader/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783BEA3E-53DC-9640-A59C-AC2741A5E245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413CBC53-046B-E741-AAA1-12D1FBF1E975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="shuffle_col_order" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="3" r:id="rId2"/>
+    <sheet name="shuffle_col_order" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>variable</t>
   </si>
@@ -190,6 +191,15 @@
   </si>
   <si>
     <t>uniform_dist_growth</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -638,7 +648,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,7 +751,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -773,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -1155,6 +1165,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC4CD65-EDE8-7843-B852-4CF86AD931EE}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>

--- a/tests/test_excelparameterloader.xlsx
+++ b/tests/test_excelparameterloader.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E45C2E-5AB6-C846-8234-95132A124598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED5733-9E16-AD40-B941-A28F9515FF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>variable</t>
   </si>
@@ -187,13 +187,19 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +244,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +274,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -273,6 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -614,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +640,7 @@
     <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +686,14 @@
       <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -707,8 +727,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -740,8 +763,11 @@
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -775,8 +801,11 @@
       <c r="M4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -804,8 +833,11 @@
       <c r="M5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -827,8 +859,11 @@
       <c r="M6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -854,8 +889,11 @@
       <c r="M7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="M8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -904,8 +945,11 @@
       <c r="M9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -931,8 +975,11 @@
       <c r="M10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -963,8 +1010,11 @@
       <c r="M11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -995,8 +1045,11 @@
       <c r="M12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1026,8 +1079,11 @@
       <c r="M13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1053,16 +1109,22 @@
       <c r="M14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I15" s="9">
         <v>0</v>
       </c>
       <c r="M15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1081,16 +1143,22 @@
       <c r="M16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P16" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I17" s="9">
         <v>0</v>
       </c>
       <c r="M17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1115,8 +1183,11 @@
       <c r="M18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -1144,8 +1215,11 @@
         <v>17</v>
       </c>
       <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
@@ -1179,6 +1253,9 @@
         <v>23</v>
       </c>
       <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="P20" s="6">
         <v>18</v>
       </c>
     </row>
@@ -1213,15 +1290,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,8 +1344,11 @@
       <c r="O1" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1297,6 +1377,9 @@
         <v>53</v>
       </c>
       <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2">
         <v>19</v>
       </c>
     </row>
